--- a/HilsaFish/Dashboard/data/Locations.xlsx
+++ b/HilsaFish/Dashboard/data/Locations.xlsx
@@ -62,9 +62,6 @@
     <t>Noonkhawa</t>
   </si>
   <si>
-    <t xml:space="preserve">Chilmari </t>
-  </si>
-  <si>
     <t>Gaibandha</t>
   </si>
   <si>
@@ -143,9 +140,6 @@
     <t>Amalshid</t>
   </si>
   <si>
-    <t>Sherpur-Sylhet</t>
-  </si>
-  <si>
     <t>Moulvibazar</t>
   </si>
   <si>
@@ -321,6 +315,12 @@
   </si>
   <si>
     <t>lon</t>
+  </si>
+  <si>
+    <t>Sherpur</t>
+  </si>
+  <si>
+    <t>Chilmari</t>
   </si>
 </sst>
 </file>
@@ -652,8 +652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="A89" sqref="A89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -667,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -785,7 +785,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="B12" s="2">
         <v>89.686153000000004</v>
@@ -796,7 +796,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="2">
         <v>89.534632000000002</v>
@@ -807,7 +807,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="2">
         <v>89.377775999999997</v>
@@ -818,7 +818,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="2">
         <v>89.73</v>
@@ -829,7 +829,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="2">
         <v>90.220624000000001</v>
@@ -840,7 +840,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="2">
         <v>89.70111</v>
@@ -851,7 +851,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="2">
         <v>90.661579000000003</v>
@@ -862,7 +862,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="2">
         <v>91.250118999999998</v>
@@ -873,7 +873,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="2">
         <v>91.405530999999996</v>
@@ -884,7 +884,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="2">
         <v>92.11833</v>
@@ -895,7 +895,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="2">
         <v>92.265191000000002</v>
@@ -906,7 +906,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="2">
         <v>91.849252000000007</v>
@@ -917,7 +917,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2">
         <v>90.652812999999995</v>
@@ -928,7 +928,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="2">
         <v>89.967658</v>
@@ -939,7 +939,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="2">
         <v>89.580653999999996</v>
@@ -950,7 +950,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="2">
         <v>89.391510999999994</v>
@@ -961,7 +961,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="2">
         <v>88.932033000000004</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="2">
         <v>88.068931000000006</v>
@@ -983,7 +983,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="2">
         <v>88.318746000000004</v>
@@ -994,7 +994,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="2">
         <v>88.744248999999996</v>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="2">
         <v>88.249526000000003</v>
@@ -1016,7 +1016,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="2">
         <v>90.431067999999996</v>
@@ -1027,7 +1027,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="2">
         <v>91.110489000000001</v>
@@ -1038,7 +1038,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="2">
         <v>91.389697999999996</v>
@@ -1049,7 +1049,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="2">
         <v>91.379531</v>
@@ -1060,7 +1060,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="2">
         <v>92.190388999999996</v>
@@ -1071,7 +1071,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="2">
         <v>92.475560000000002</v>
@@ -1082,7 +1082,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="B39" s="2">
         <v>91.681667000000004</v>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B40" s="2">
         <v>91.774876000000006</v>
@@ -1104,7 +1104,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B41" s="2">
         <v>91.937552999999994</v>
@@ -1115,7 +1115,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B42" s="2">
         <v>91.845820000000003</v>
@@ -1126,7 +1126,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B43" s="2">
         <v>91.410342</v>
@@ -1137,7 +1137,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B44" s="2">
         <v>91.596149999999994</v>
@@ -1148,7 +1148,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B45" s="2">
         <v>90.991206000000005</v>
@@ -1159,7 +1159,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B46" s="2">
         <v>91.119442000000006</v>
@@ -1170,7 +1170,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B47" s="2">
         <v>90.726529999999997</v>
@@ -1181,7 +1181,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B48" s="2">
         <v>90.650531999999998</v>
@@ -1192,7 +1192,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B49" s="2">
         <v>90.401019000000005</v>
@@ -1203,7 +1203,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B50" s="2">
         <v>90.230264000000005</v>
@@ -1214,7 +1214,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B51" s="2">
         <v>90.335992000000005</v>
@@ -1225,7 +1225,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B52" s="2">
         <v>90.025396999999998</v>
@@ -1236,7 +1236,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B53" s="2">
         <v>89.958067999999997</v>
@@ -1247,7 +1247,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B54" s="2">
         <v>89.772772000000003</v>
@@ -1258,7 +1258,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B55" s="2">
         <v>89.778872000000007</v>
@@ -1269,7 +1269,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B56" s="2">
         <v>90.417675000000003</v>
@@ -1280,7 +1280,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B57" s="2">
         <v>90.498857000000001</v>
@@ -1291,7 +1291,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B58" s="2">
         <v>90.514174999999994</v>
@@ -1302,7 +1302,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B59" s="2">
         <v>90.638969000000003</v>
@@ -1313,7 +1313,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B60" s="2">
         <v>90.987819999999999</v>
@@ -1324,7 +1324,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B61" s="2">
         <v>91.067582999999999</v>
@@ -1335,7 +1335,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B62" s="2">
         <v>89.689858000000001</v>
@@ -1346,7 +1346,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B63" s="2">
         <v>88.965237000000002</v>
@@ -1357,7 +1357,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B64" s="2">
         <v>89.14</v>
@@ -1368,7 +1368,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B65" s="2">
         <v>88.553698999999995</v>
@@ -1379,7 +1379,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B66" s="2">
         <v>89.226099000000005</v>
@@ -1390,7 +1390,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B67" s="2">
         <v>89.718387000000007</v>
@@ -1401,7 +1401,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B68" s="2">
         <v>89.831691000000006</v>
@@ -1412,7 +1412,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B69" s="2">
         <v>89.516255999999998</v>
@@ -1423,7 +1423,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B70" s="2">
         <v>90.480009999999993</v>
@@ -1434,7 +1434,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B71" s="2">
         <v>91.198390000000003</v>
@@ -1445,7 +1445,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B72" s="2">
         <v>91.438231000000002</v>
@@ -1456,7 +1456,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B73" s="2">
         <v>90.639487000000003</v>
@@ -1467,7 +1467,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B74" s="2">
         <v>90.439031999999997</v>
@@ -1478,7 +1478,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B75" s="2">
         <v>90.209847999999994</v>
@@ -1489,7 +1489,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B76" s="2">
         <v>89.096762999999996</v>
@@ -1500,7 +1500,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B77" s="2">
         <v>91.703953999999996</v>
@@ -1511,7 +1511,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B78" s="2">
         <v>91.719764999999995</v>
@@ -1522,7 +1522,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B79" s="2">
         <v>91.846427000000006</v>
@@ -1533,7 +1533,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B80" s="2">
         <v>90.736859999999993</v>
@@ -1544,7 +1544,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B81" s="2">
         <v>89.580461999999997</v>
@@ -1555,7 +1555,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B82" s="2">
         <v>89.047523999999996</v>
@@ -1566,7 +1566,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B83" s="2">
         <v>88.969965000000002</v>
@@ -1577,7 +1577,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B84" s="2">
         <v>89.594984999999994</v>
@@ -1588,7 +1588,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B85" s="2">
         <v>89.017026000000001</v>
@@ -1599,7 +1599,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B86" s="2">
         <v>89.852125999999998</v>
@@ -1610,7 +1610,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B87" s="2">
         <v>90.548603999999997</v>
@@ -1621,7 +1621,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B88" s="2">
         <v>89.987211000000002</v>
@@ -1632,7 +1632,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B89" s="2">
         <v>92.063472000000004</v>
@@ -1643,7 +1643,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B90" s="2">
         <v>92.216245999999998</v>
@@ -1654,7 +1654,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B91" s="2">
         <v>92.079742999999993</v>
@@ -1665,7 +1665,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B92" s="2">
         <v>92.209356</v>
@@ -1676,7 +1676,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B93" s="2">
         <v>88.832914000000002</v>
@@ -1687,7 +1687,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B94" s="2">
         <v>88.857084999999998</v>
@@ -1698,7 +1698,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B95" s="2">
         <v>89.182899000000006</v>
@@ -1709,7 +1709,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B96" s="2">
         <v>89.033519999999996</v>
